--- a/client/src/recommendationAI/emailRec(Кабаченко).xlsx
+++ b/client/src/recommendationAI/emailRec(Кабаченко).xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubProjects\monogas\client\src\recommendationAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32550B6-3E21-4F87-AEA4-763643C96646}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF22F5-F76F-4B51-882E-B8B36C01DF97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="18108" windowHeight="10032" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adam" sheetId="1" r:id="rId1"/>
     <sheet name="AdaGrad" sheetId="3" r:id="rId2"/>
     <sheet name="AdaDelta" sheetId="4" r:id="rId3"/>
     <sheet name="AdaMax" sheetId="5" r:id="rId4"/>
+    <sheet name="Activation" sheetId="6" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>epoch</t>
   </si>
@@ -45,12 +43,33 @@
   <si>
     <t>variance</t>
   </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>Softmax</t>
+  </si>
+  <si>
+    <t>swish*swish</t>
+  </si>
+  <si>
+    <t>swish*gelu</t>
+  </si>
+  <si>
+    <t>gelu*swish</t>
+  </si>
+  <si>
+    <t>gelu*gelu</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,16 +77,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -75,13 +115,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6643,829 +6722,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SGD"/>
-      <sheetName val="Momentum"/>
-      <sheetName val="RMSprop"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>epoch</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>6.383752916008234E-4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3">
-            <v>6.2324013561010361E-4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="B4">
-            <v>6.0863385442644358E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="B5">
-            <v>5.9769937070086598E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-          <cell r="B6">
-            <v>5.9133931063115597E-4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="B7">
-            <v>5.8431446086615324E-4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-          <cell r="B8">
-            <v>5.7679915335029364E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-          <cell r="B9">
-            <v>5.7018676307052374E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-          <cell r="B10">
-            <v>5.6257453979924321E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-          <cell r="B11">
-            <v>5.5756897199898958E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10</v>
-          </cell>
-          <cell r="B12">
-            <v>5.483257700689137E-4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>11</v>
-          </cell>
-          <cell r="B13">
-            <v>5.3972587920725346E-4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>12</v>
-          </cell>
-          <cell r="B14">
-            <v>5.3427030798047781E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>13</v>
-          </cell>
-          <cell r="B15">
-            <v>5.2629946731030941E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>14</v>
-          </cell>
-          <cell r="B16">
-            <v>5.2050320664420724E-4</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>15</v>
-          </cell>
-          <cell r="B17">
-            <v>5.1434896886348724E-4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>16</v>
-          </cell>
-          <cell r="B18">
-            <v>5.0749728688970208E-4</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>17</v>
-          </cell>
-          <cell r="B19">
-            <v>5.0154759082943201E-4</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>18</v>
-          </cell>
-          <cell r="B20">
-            <v>4.9043487524613738E-4</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>19</v>
-          </cell>
-          <cell r="B21">
-            <v>4.8499280819669366E-4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>20</v>
-          </cell>
-          <cell r="B22">
-            <v>4.7777660074643791E-4</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>21</v>
-          </cell>
-          <cell r="B23">
-            <v>4.7322182217612863E-4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>22</v>
-          </cell>
-          <cell r="B24">
-            <v>4.6756409574300051E-4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>23</v>
-          </cell>
-          <cell r="B25">
-            <v>4.6311435289680958E-4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>24</v>
-          </cell>
-          <cell r="B26">
-            <v>4.5911068446002901E-4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>25</v>
-          </cell>
-          <cell r="B27">
-            <v>4.553958133328706E-4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>26</v>
-          </cell>
-          <cell r="B28">
-            <v>4.4660520507022738E-4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>27</v>
-          </cell>
-          <cell r="B29">
-            <v>4.4253183295950294E-4</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>28</v>
-          </cell>
-          <cell r="B30">
-            <v>4.3826329056173563E-4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>29</v>
-          </cell>
-          <cell r="B31">
-            <v>4.3311127228662372E-4</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>30</v>
-          </cell>
-          <cell r="B32">
-            <v>4.2830026359297335E-4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>31</v>
-          </cell>
-          <cell r="B33">
-            <v>4.2486676829867065E-4</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>32</v>
-          </cell>
-          <cell r="B34">
-            <v>4.210842598695308E-4</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>33</v>
-          </cell>
-          <cell r="B35">
-            <v>4.1783726192079484E-4</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>34</v>
-          </cell>
-          <cell r="B36">
-            <v>4.1219120612367988E-4</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>35</v>
-          </cell>
-          <cell r="B37">
-            <v>4.0847121272236109E-4</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>36</v>
-          </cell>
-          <cell r="B38">
-            <v>4.0429012733511627E-4</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>37</v>
-          </cell>
-          <cell r="B39">
-            <v>4.0007897769100964E-4</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>38</v>
-          </cell>
-          <cell r="B40">
-            <v>3.9698841283097863E-4</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>39</v>
-          </cell>
-          <cell r="B41">
-            <v>3.9304711390286684E-4</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>40</v>
-          </cell>
-          <cell r="B42">
-            <v>3.9000334800221026E-4</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>41</v>
-          </cell>
-          <cell r="B43">
-            <v>3.870523942168802E-4</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>42</v>
-          </cell>
-          <cell r="B44">
-            <v>3.8287724601104856E-4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>43</v>
-          </cell>
-          <cell r="B45">
-            <v>3.7986133247613907E-4</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>44</v>
-          </cell>
-          <cell r="B46">
-            <v>3.7526487722061574E-4</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>45</v>
-          </cell>
-          <cell r="B47">
-            <v>3.7245950079523027E-4</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>46</v>
-          </cell>
-          <cell r="B48">
-            <v>3.6913779331371188E-4</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>47</v>
-          </cell>
-          <cell r="B49">
-            <v>3.6554379039444029E-4</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>48</v>
-          </cell>
-          <cell r="B50">
-            <v>3.6290800198912621E-4</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>49</v>
-          </cell>
-          <cell r="B51">
-            <v>3.5938184009864926E-4</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>50</v>
-          </cell>
-          <cell r="B52">
-            <v>3.5630425554700196E-4</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>51</v>
-          </cell>
-          <cell r="B53">
-            <v>3.5242416197434068E-4</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>52</v>
-          </cell>
-          <cell r="B54">
-            <v>3.4873894765041769E-4</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>53</v>
-          </cell>
-          <cell r="B55">
-            <v>3.4539797343313694E-4</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>54</v>
-          </cell>
-          <cell r="B56">
-            <v>3.4183062962256372E-4</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>55</v>
-          </cell>
-          <cell r="B57">
-            <v>3.3797064679674804E-4</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>56</v>
-          </cell>
-          <cell r="B58">
-            <v>3.3579207956790924E-4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>57</v>
-          </cell>
-          <cell r="B59">
-            <v>3.3391205943189561E-4</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>58</v>
-          </cell>
-          <cell r="B60">
-            <v>3.3059506677091122E-4</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>59</v>
-          </cell>
-          <cell r="B61">
-            <v>3.2813238794915378E-4</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>60</v>
-          </cell>
-          <cell r="B62">
-            <v>3.2574313809163868E-4</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>61</v>
-          </cell>
-          <cell r="B63">
-            <v>3.2369585824199021E-4</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>62</v>
-          </cell>
-          <cell r="B64">
-            <v>3.219987265765667E-4</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>63</v>
-          </cell>
-          <cell r="B65">
-            <v>3.1907277298159897E-4</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>64</v>
-          </cell>
-          <cell r="B66">
-            <v>3.1693026539869606E-4</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>65</v>
-          </cell>
-          <cell r="B67">
-            <v>3.1504171784035861E-4</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>66</v>
-          </cell>
-          <cell r="B68">
-            <v>3.1295226654037833E-4</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>67</v>
-          </cell>
-          <cell r="B69">
-            <v>3.1059185857884586E-4</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>68</v>
-          </cell>
-          <cell r="B70">
-            <v>3.0877918470650911E-4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>69</v>
-          </cell>
-          <cell r="B71">
-            <v>3.0632864218205214E-4</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>70</v>
-          </cell>
-          <cell r="B72">
-            <v>3.0334966140799224E-4</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>71</v>
-          </cell>
-          <cell r="B73">
-            <v>3.0142755713313818E-4</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>72</v>
-          </cell>
-          <cell r="B74">
-            <v>2.9897928470745683E-4</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>73</v>
-          </cell>
-          <cell r="B75">
-            <v>2.9678980354219675E-4</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>74</v>
-          </cell>
-          <cell r="B76">
-            <v>2.9471589368768036E-4</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>75</v>
-          </cell>
-          <cell r="B77">
-            <v>2.935531665571034E-4</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>76</v>
-          </cell>
-          <cell r="B78">
-            <v>2.9164052102714777E-4</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>77</v>
-          </cell>
-          <cell r="B79">
-            <v>2.8961707721464336E-4</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>78</v>
-          </cell>
-          <cell r="B80">
-            <v>2.8779605054296553E-4</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>79</v>
-          </cell>
-          <cell r="B81">
-            <v>2.8526614187285304E-4</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>80</v>
-          </cell>
-          <cell r="B82">
-            <v>2.8338722768239677E-4</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>81</v>
-          </cell>
-          <cell r="B83">
-            <v>2.8196568018756807E-4</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>82</v>
-          </cell>
-          <cell r="B84">
-            <v>2.7932258672080934E-4</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>83</v>
-          </cell>
-          <cell r="B85">
-            <v>2.7772170142270625E-4</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>84</v>
-          </cell>
-          <cell r="B86">
-            <v>2.7529150247573853E-4</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>85</v>
-          </cell>
-          <cell r="B87">
-            <v>2.7374713681638241E-4</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>86</v>
-          </cell>
-          <cell r="B88">
-            <v>2.7196560404263437E-4</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>87</v>
-          </cell>
-          <cell r="B89">
-            <v>2.7042499277740717E-4</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>88</v>
-          </cell>
-          <cell r="B90">
-            <v>2.688468957785517E-4</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>89</v>
-          </cell>
-          <cell r="B91">
-            <v>2.6722668553702533E-4</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>90</v>
-          </cell>
-          <cell r="B92">
-            <v>2.6596285169944167E-4</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>91</v>
-          </cell>
-          <cell r="B93">
-            <v>2.642090548761189E-4</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>92</v>
-          </cell>
-          <cell r="B94">
-            <v>2.627646317705512E-4</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>93</v>
-          </cell>
-          <cell r="B95">
-            <v>2.6094701024703681E-4</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>94</v>
-          </cell>
-          <cell r="B96">
-            <v>2.5954106240533292E-4</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>95</v>
-          </cell>
-          <cell r="B97">
-            <v>2.5812920648604631E-4</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>96</v>
-          </cell>
-          <cell r="B98">
-            <v>2.5722768623381853E-4</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>97</v>
-          </cell>
-          <cell r="B99">
-            <v>2.5550750433467329E-4</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>98</v>
-          </cell>
-          <cell r="B100">
-            <v>2.5438205921091139E-4</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>99</v>
-          </cell>
-          <cell r="B101">
-            <v>2.5238769012503326E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7788,18 +7044,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7819,7 +7075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7842,7 +7098,7 @@
         <v>7.2837730355375179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7850,7 +7106,7 @@
         <v>4.1851666755974293E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7858,7 +7114,7 @@
         <v>4.0697762742638588E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7866,7 +7122,7 @@
         <v>3.9559374563395977E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7874,7 +7130,7 @@
         <v>3.8437952753156424E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7882,7 +7138,7 @@
         <v>3.7370589561760426E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7890,7 +7146,7 @@
         <v>3.6329443100839853E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7898,7 +7154,7 @@
         <v>3.532858332619071E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7906,7 +7162,7 @@
         <v>3.4359791316092014E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7914,7 +7170,7 @@
         <v>3.3403185661882162E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7922,7 +7178,7 @@
         <v>3.2448305282741785E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7930,7 +7186,7 @@
         <v>3.1529990956187248E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7938,7 +7194,7 @@
         <v>3.0658231116831303E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7946,7 +7202,7 @@
         <v>2.9844732489436865E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -7954,7 +7210,7 @@
         <v>2.9046724084764719E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7962,7 +7218,7 @@
         <v>2.8276743832975626E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -7970,7 +7226,7 @@
         <v>2.7508216444402933E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -7978,7 +7234,7 @@
         <v>2.6772860437631607E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -7986,7 +7242,7 @@
         <v>2.6094501372426748E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7994,7 +7250,7 @@
         <v>2.5442445185035467E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8002,7 +7258,7 @@
         <v>2.4799671955406666E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8010,7 +7266,7 @@
         <v>2.4171185214072466E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8018,7 +7274,7 @@
         <v>2.356233773753047E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8026,7 +7282,7 @@
         <v>2.29654461145401E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8034,7 +7290,7 @@
         <v>2.2398296277970076E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8042,7 +7298,7 @@
         <v>2.1852364297956228E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8050,7 +7306,7 @@
         <v>2.1348565351217985E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8058,7 +7314,7 @@
         <v>2.0861632656306028E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8066,7 +7322,7 @@
         <v>2.0396877080202103E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8074,7 +7330,7 @@
         <v>1.9949271809309721E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8082,7 +7338,7 @@
         <v>1.9509041449055076E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8090,7 +7346,7 @@
         <v>1.9087751861661673E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8098,7 +7354,7 @@
         <v>1.867734594270587E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8106,7 +7362,7 @@
         <v>1.8292817985638976E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8114,7 +7370,7 @@
         <v>1.7929484602063894E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8122,7 +7378,7 @@
         <v>1.7574209487065673E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8130,7 +7386,7 @@
         <v>1.7221574671566486E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8138,7 +7394,7 @@
         <v>1.6871235566213727E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8146,7 +7402,7 @@
         <v>1.6537068877369165E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8154,7 +7410,7 @@
         <v>1.6208653105422854E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8162,7 +7418,7 @@
         <v>1.5877117402851582E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8170,7 +7426,7 @@
         <v>1.5539899468421936E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8178,7 +7434,7 @@
         <v>1.5196797903627157E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8186,7 +7442,7 @@
         <v>1.4867231948301196E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8194,7 +7450,7 @@
         <v>1.4543088618665934E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8202,7 +7458,7 @@
         <v>1.4227168867364526E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -8210,7 +7466,7 @@
         <v>1.3924385420978069E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -8218,7 +7474,7 @@
         <v>1.3632574118673801E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -8226,7 +7482,7 @@
         <v>1.3351723318919539E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -8234,7 +7490,7 @@
         <v>1.306387479417026E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -8242,7 +7498,7 @@
         <v>1.2787882005795836E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -8250,7 +7506,7 @@
         <v>1.2525643687695265E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -8258,7 +7514,7 @@
         <v>1.2276553316041827E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -8266,7 +7522,7 @@
         <v>1.2030239449813962E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -8274,7 +7530,7 @@
         <v>1.1787879047915339E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -8282,7 +7538,7 @@
         <v>1.1560316197574139E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -8290,7 +7546,7 @@
         <v>1.1337439063936472E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -8298,7 +7554,7 @@
         <v>1.1124963639304042E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -8306,7 +7562,7 @@
         <v>1.0915077291429043E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -8314,7 +7570,7 @@
         <v>1.0714487871155143E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -8322,7 +7578,7 @@
         <v>1.0515648173168302E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -8330,7 +7586,7 @@
         <v>1.0322899324819446E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -8338,7 +7594,7 @@
         <v>1.0130739537999034E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -8346,7 +7602,7 @@
         <v>9.9316099658608437E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -8354,7 +7610,7 @@
         <v>9.7342411754652858E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -8362,7 +7618,7 @@
         <v>9.5455069094896317E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -8370,7 +7626,7 @@
         <v>9.3592435587197542E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -8378,7 +7634,7 @@
         <v>9.1775675537064672E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -8386,7 +7642,7 @@
         <v>9.0006005484610796E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -8394,7 +7650,7 @@
         <v>8.827479905448854E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -8402,7 +7658,7 @@
         <v>8.650796371512115E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -8410,7 +7666,7 @@
         <v>8.4773922571912408E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -8418,7 +7674,7 @@
         <v>8.3113048458471894E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -8426,7 +7682,7 @@
         <v>8.1504014087840915E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -8434,7 +7690,7 @@
         <v>7.9974671825766563E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -8442,7 +7698,7 @@
         <v>7.8488868894055486E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -8450,7 +7706,7 @@
         <v>7.6983188046142459E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -8458,7 +7714,7 @@
         <v>7.5549713801592588E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -8466,7 +7722,7 @@
         <v>7.4188323924317956E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -8474,7 +7730,7 @@
         <v>7.28619284927845E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -8482,7 +7738,7 @@
         <v>7.1626622229814529E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -8490,7 +7746,7 @@
         <v>7.0413225330412388E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -8498,7 +7754,7 @@
         <v>6.922914762981236E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -8506,7 +7762,7 @@
         <v>6.8000558530911803E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -8514,7 +7770,7 @@
         <v>6.6828116541728377E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -8522,7 +7778,7 @@
         <v>6.5679725958034396E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -8530,7 +7786,7 @@
         <v>6.4549851231276989E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -8538,7 +7794,7 @@
         <v>6.3461042009294033E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -8546,7 +7802,7 @@
         <v>6.2358396826311946E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -8554,7 +7810,7 @@
         <v>6.1248242855072021E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8562,7 +7818,7 @@
         <v>6.0162454610690475E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8570,7 +7826,7 @@
         <v>5.9106200933456421E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8578,7 +7834,7 @@
         <v>5.8083777548745275E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8586,7 +7842,7 @@
         <v>5.7129864580929279E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8594,7 +7850,7 @@
         <v>5.6213140487670898E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8602,7 +7858,7 @@
         <v>5.5339030222967267E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8610,7 +7866,7 @@
         <v>5.44761773198843E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8618,7 +7874,7 @@
         <v>5.3638807730749249E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8626,7 +7882,7 @@
         <v>5.2794581279158592E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8634,7 +7890,6 @@
         <v>5.1945366431027651E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -8646,18 +7901,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF15D66-7A74-4F97-ACD2-F5F304CF153A}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8677,7 +7932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8700,7 +7955,7 @@
         <v>2.9627001543420644</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8708,7 +7963,7 @@
         <v>0.34110462665557861</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8716,7 +7971,7 @@
         <v>0.3373352587223053</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8724,7 +7979,7 @@
         <v>0.33357369899749756</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8732,7 +7987,7 @@
         <v>0.32972720265388489</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8740,7 +7995,7 @@
         <v>0.32592365145683289</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8748,7 +8003,7 @@
         <v>0.3221459686756134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8756,7 +8011,7 @@
         <v>0.31845363974571228</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8764,7 +8019,7 @@
         <v>0.31471151113510132</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8772,7 +8027,7 @@
         <v>0.31089293956756592</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8780,7 +8035,7 @@
         <v>0.30723148584365845</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8788,7 +8043,7 @@
         <v>0.30364936590194702</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8796,7 +8051,7 @@
         <v>0.29992252588272095</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8804,7 +8059,7 @@
         <v>0.29618331789970398</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8812,7 +8067,7 @@
         <v>0.29257649183273315</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8820,7 +8075,7 @@
         <v>0.28886714577674866</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8828,7 +8083,7 @@
         <v>0.28523549437522888</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8836,7 +8091,7 @@
         <v>0.28156545758247375</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8844,7 +8099,7 @@
         <v>0.27796480059623718</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8852,7 +8107,7 @@
         <v>0.27430170774459839</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8860,7 +8115,7 @@
         <v>0.27074766159057617</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8868,7 +8123,7 @@
         <v>0.26719087362289429</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8876,7 +8131,7 @@
         <v>0.26358574628829956</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8884,7 +8139,7 @@
         <v>0.26014578342437744</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8892,7 +8147,7 @@
         <v>0.25670325756072998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8900,7 +8155,7 @@
         <v>0.25327184796333313</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8908,7 +8163,7 @@
         <v>0.24990874528884888</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8916,7 +8171,7 @@
         <v>0.24649357795715332</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8924,7 +8179,7 @@
         <v>0.24306616187095642</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8932,7 +8187,7 @@
         <v>0.23975735902786255</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8940,7 +8195,7 @@
         <v>0.23633216321468353</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8948,7 +8203,7 @@
         <v>0.23299120366573334</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8956,7 +8211,7 @@
         <v>0.22976879775524139</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8964,7 +8219,7 @@
         <v>0.22661708295345306</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8972,7 +8227,7 @@
         <v>0.22350406646728516</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8980,7 +8235,7 @@
         <v>0.22042609751224518</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8988,7 +8243,7 @@
         <v>0.21736340224742889</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8996,7 +8251,7 @@
         <v>0.21432952582836151</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9004,7 +8259,7 @@
         <v>0.21131584048271179</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9012,7 +8267,7 @@
         <v>0.20838171243667603</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9020,7 +8275,7 @@
         <v>0.2054106593132019</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9028,7 +8283,7 @@
         <v>0.20254266262054443</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9036,7 +8291,7 @@
         <v>0.19971252977848053</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9044,7 +8299,7 @@
         <v>0.19690042734146118</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9052,7 +8307,7 @@
         <v>0.19401334226131439</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9060,7 +8315,7 @@
         <v>0.19123645126819611</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9068,7 +8323,7 @@
         <v>0.18836626410484314</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9076,7 +8331,7 @@
         <v>0.18556904792785645</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9084,7 +8339,7 @@
         <v>0.18270747363567352</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9092,7 +8347,7 @@
         <v>0.18009071052074432</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9100,7 +8355,7 @@
         <v>0.17744725942611694</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9108,7 +8363,7 @@
         <v>0.17487625777721405</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9116,7 +8371,7 @@
         <v>0.1723848432302475</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9124,7 +8379,7 @@
         <v>0.16983000934123993</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9132,7 +8387,7 @@
         <v>0.16717693209648132</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9140,7 +8395,7 @@
         <v>0.16457173228263855</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9148,7 +8403,7 @@
         <v>0.16212938725948334</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9156,7 +8411,7 @@
         <v>0.15975679457187653</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9164,7 +8419,7 @@
         <v>0.15745830535888672</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9172,7 +8427,7 @@
         <v>0.15500099956989288</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9180,7 +8435,7 @@
         <v>0.15270340442657471</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9188,7 +8443,7 @@
         <v>0.1505502462387085</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9196,7 +8451,7 @@
         <v>0.14827927947044373</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9204,7 +8459,7 @@
         <v>0.14603306353092194</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9212,7 +8467,7 @@
         <v>0.14399242401123047</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -9220,7 +8475,7 @@
         <v>0.14174775779247284</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9228,7 +8483,7 @@
         <v>0.13970917463302612</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -9236,7 +8491,7 @@
         <v>0.13767609000205994</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9244,7 +8499,7 @@
         <v>0.13570214807987213</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9252,7 +8507,7 @@
         <v>0.13373959064483643</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9260,7 +8515,7 @@
         <v>0.13186125457286835</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -9268,7 +8523,7 @@
         <v>0.1299869567155838</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -9276,7 +8531,7 @@
         <v>0.12803351879119873</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -9284,7 +8539,7 @@
         <v>0.12611693143844604</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -9292,7 +8547,7 @@
         <v>0.12415503710508347</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -9300,7 +8555,7 @@
         <v>0.12243077903985977</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -9308,7 +8563,7 @@
         <v>0.1205805167555809</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9316,7 +8571,7 @@
         <v>0.1188967227935791</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9324,7 +8579,7 @@
         <v>0.1171521320939064</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9332,7 +8587,7 @@
         <v>0.11547756195068359</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9340,7 +8595,7 @@
         <v>0.11388593912124634</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -9348,7 +8603,7 @@
         <v>0.11232327669858932</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -9356,7 +8611,7 @@
         <v>0.11070325970649719</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -9364,7 +8619,7 @@
         <v>0.1091127023100853</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -9372,7 +8627,7 @@
         <v>0.10748172551393509</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -9380,7 +8635,7 @@
         <v>0.10599160939455032</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -9388,7 +8643,7 @@
         <v>0.10456240177154541</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -9396,7 +8651,7 @@
         <v>0.10294400900602341</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -9404,7 +8659,7 @@
         <v>0.10135035961866379</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -9412,7 +8667,7 @@
         <v>9.9951289594173431E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -9420,7 +8675,7 @@
         <v>9.862624853849411E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -9428,7 +8683,7 @@
         <v>9.735049307346344E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -9436,7 +8691,7 @@
         <v>9.5946371555328369E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -9444,7 +8699,7 @@
         <v>9.4578318297863007E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -9452,7 +8707,7 @@
         <v>9.3346960842609406E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -9460,7 +8715,7 @@
         <v>9.2085696756839752E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -9468,7 +8723,7 @@
         <v>9.0687893331050873E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -9476,7 +8731,7 @@
         <v>8.955027163028717E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -9484,7 +8739,7 @@
         <v>8.8385641574859619E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -9492,8 +8747,6 @@
         <v>8.706548810005188E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9502,18 +8755,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5E55C4-396D-46E3-A3B0-A8CC99629FAF}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9533,7 +8786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9556,7 +8809,7 @@
         <v>2.1749606868651766E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9564,7 +8817,7 @@
         <v>0.67911243438720703</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9572,7 +8825,7 @@
         <v>0.67897439002990723</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9580,7 +8833,7 @@
         <v>0.67881929874420166</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9588,7 +8841,7 @@
         <v>0.67867124080657959</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9596,7 +8849,7 @@
         <v>0.67852526903152466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9604,7 +8857,7 @@
         <v>0.67837506532669067</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9612,7 +8865,7 @@
         <v>0.67822879552841187</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9620,7 +8873,7 @@
         <v>0.67807787656784058</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9628,7 +8881,7 @@
         <v>0.67793774604797363</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9636,7 +8889,7 @@
         <v>0.67778301239013672</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9644,7 +8897,7 @@
         <v>0.677631676197052</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9652,7 +8905,7 @@
         <v>0.67747896909713745</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9660,7 +8913,7 @@
         <v>0.67733365297317505</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9668,7 +8921,7 @@
         <v>0.67718839645385742</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9676,7 +8929,7 @@
         <v>0.67704856395721436</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9684,7 +8937,7 @@
         <v>0.67689752578735352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9692,7 +8945,7 @@
         <v>0.6767498254776001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9700,7 +8953,7 @@
         <v>0.67660772800445557</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9708,7 +8961,7 @@
         <v>0.67645686864852905</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9716,7 +8969,7 @@
         <v>0.67630267143249512</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9724,7 +8977,7 @@
         <v>0.67615705728530884</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9732,7 +8985,7 @@
         <v>0.67602008581161499</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9740,7 +8993,7 @@
         <v>0.67587548494338989</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9748,7 +9001,7 @@
         <v>0.67572176456451416</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9756,7 +9009,7 @@
         <v>0.67557698488235474</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9764,7 +9017,7 @@
         <v>0.67544049024581909</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9772,7 +9025,7 @@
         <v>0.67529821395874023</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9780,7 +9033,7 @@
         <v>0.67515021562576294</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9788,7 +9041,7 @@
         <v>0.67499774694442749</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9796,7 +9049,7 @@
         <v>0.67484986782073975</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9804,7 +9057,7 @@
         <v>0.67469960451126099</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9812,7 +9065,7 @@
         <v>0.67455488443374634</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9820,7 +9073,7 @@
         <v>0.67440539598464966</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9828,7 +9081,7 @@
         <v>0.67425251007080078</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9836,7 +9089,7 @@
         <v>0.67410171031951904</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9844,7 +9097,7 @@
         <v>0.67396056652069092</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9852,7 +9105,7 @@
         <v>0.67381060123443604</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9860,7 +9113,7 @@
         <v>0.67365807294845581</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9868,7 +9121,7 @@
         <v>0.67352014780044556</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9876,7 +9129,7 @@
         <v>0.67338234186172485</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9884,7 +9137,7 @@
         <v>0.67324411869049072</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9892,7 +9145,7 @@
         <v>0.67309540510177612</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9900,7 +9153,7 @@
         <v>0.67294681072235107</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9908,7 +9161,7 @@
         <v>0.67280495166778564</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9916,7 +9169,7 @@
         <v>0.67265588045120239</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9924,7 +9177,7 @@
         <v>0.67251527309417725</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9932,7 +9185,7 @@
         <v>0.67236340045928955</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9940,7 +9193,7 @@
         <v>0.67222553491592407</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9948,7 +9201,7 @@
         <v>0.67209041118621826</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9956,7 +9209,7 @@
         <v>0.67193961143493652</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9964,7 +9217,7 @@
         <v>0.67179948091506958</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9972,7 +9225,7 @@
         <v>0.67166411876678467</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9980,7 +9233,7 @@
         <v>0.67152035236358643</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9988,7 +9241,7 @@
         <v>0.67136943340301514</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9996,7 +9249,7 @@
         <v>0.67121767997741699</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -10004,7 +9257,7 @@
         <v>0.67108261585235596</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -10012,7 +9265,7 @@
         <v>0.67092567682266235</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -10020,7 +9273,7 @@
         <v>0.67078793048858643</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -10028,7 +9281,7 @@
         <v>0.67064166069030762</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -10036,7 +9289,7 @@
         <v>0.67049562931060791</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -10044,7 +9297,7 @@
         <v>0.67034667730331421</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -10052,7 +9305,7 @@
         <v>0.67020285129547119</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -10060,7 +9313,7 @@
         <v>0.6700439453125</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -10068,7 +9321,7 @@
         <v>0.66989791393280029</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -10076,7 +9329,7 @@
         <v>0.66976022720336914</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -10084,7 +9337,7 @@
         <v>0.6696014404296875</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -10092,7 +9345,7 @@
         <v>0.66945517063140869</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -10100,7 +9353,7 @@
         <v>0.66930431127548218</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -10108,7 +9361,7 @@
         <v>0.66915440559387207</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -10116,7 +9369,7 @@
         <v>0.66901147365570068</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -10124,7 +9377,7 @@
         <v>0.6688683032989502</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -10132,7 +9385,7 @@
         <v>0.66871762275695801</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10140,7 +9393,7 @@
         <v>0.66856926679611206</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -10148,7 +9401,7 @@
         <v>0.66841959953308105</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -10156,7 +9409,7 @@
         <v>0.66827547550201416</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -10164,7 +9417,7 @@
         <v>0.66813832521438599</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -10172,7 +9425,7 @@
         <v>0.66798722743988037</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -10180,7 +9433,7 @@
         <v>0.66784965991973877</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -10188,7 +9441,7 @@
         <v>0.66770845651626587</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -10196,7 +9449,7 @@
         <v>0.66757029294967651</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -10204,7 +9457,7 @@
         <v>0.66742360591888428</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -10212,7 +9465,7 @@
         <v>0.6672787070274353</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -10220,7 +9473,7 @@
         <v>0.66713207960128784</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -10228,7 +9481,7 @@
         <v>0.66698294878005981</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -10236,7 +9489,7 @@
         <v>0.66684013605117798</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -10244,7 +9497,7 @@
         <v>0.66669279336929321</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -10252,7 +9505,7 @@
         <v>0.66655075550079346</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -10260,7 +9513,7 @@
         <v>0.66639584302902222</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -10268,7 +9521,7 @@
         <v>0.66624826192855835</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -10276,7 +9529,7 @@
         <v>0.66609889268875122</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -10284,7 +9537,7 @@
         <v>0.66595500707626343</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -10292,7 +9545,7 @@
         <v>0.66581201553344727</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -10300,7 +9553,7 @@
         <v>0.66566330194473267</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10308,7 +9561,7 @@
         <v>0.66552680730819702</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10316,7 +9569,7 @@
         <v>0.66537958383560181</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10324,7 +9577,7 @@
         <v>0.66522997617721558</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -10332,7 +9585,7 @@
         <v>0.66507905721664429</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10340,7 +9593,7 @@
         <v>0.66493111848831177</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -10348,7 +9601,6 @@
         <v>0.66479426622390747</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10357,18 +9609,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ADC118-7271-4F5C-80FF-DDB917511D5D}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10388,7 +9640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10411,7 +9663,7 @@
         <v>3.8583890380433497</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10419,7 +9671,7 @@
         <v>1.1034280993044376E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10427,7 +9679,7 @@
         <v>1.0731954127550125E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10435,7 +9687,7 @@
         <v>1.0435443371534348E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10443,7 +9695,7 @@
         <v>1.0145404376089573E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10451,7 +9703,7 @@
         <v>9.861186146736145E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10459,7 +9711,7 @@
         <v>9.5879845321178436E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10467,7 +9719,7 @@
         <v>9.3368738889694214E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10475,7 +9727,7 @@
         <v>9.1028856113553047E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10483,7 +9735,7 @@
         <v>8.8881896808743477E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10491,7 +9743,7 @@
         <v>8.6839990690350533E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10499,7 +9751,7 @@
         <v>8.4900958463549614E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10507,7 +9759,7 @@
         <v>8.2988962531089783E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10515,7 +9767,7 @@
         <v>8.1131691113114357E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10523,7 +9775,7 @@
         <v>7.9348301514983177E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10531,7 +9783,7 @@
         <v>7.7704186551272869E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10539,7 +9791,7 @@
         <v>7.6161110773682594E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10547,7 +9799,7 @@
         <v>7.4673662893474102E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10555,7 +9807,7 @@
         <v>7.326809223741293E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10563,7 +9815,7 @@
         <v>7.1851913817226887E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -10571,7 +9823,7 @@
         <v>7.0463865995407104E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -10579,7 +9831,7 @@
         <v>6.9141555577516556E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -10587,7 +9839,7 @@
         <v>6.7882519215345383E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -10595,7 +9847,7 @@
         <v>6.6656512208282948E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -10603,7 +9855,7 @@
         <v>6.5414309501647949E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -10611,7 +9863,7 @@
         <v>6.4138881862163544E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -10619,7 +9871,7 @@
         <v>6.2928078696131706E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10627,7 +9879,7 @@
         <v>6.1721052043139935E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10635,7 +9887,7 @@
         <v>6.058037281036377E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10643,7 +9895,7 @@
         <v>5.9403949417173862E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10651,7 +9903,7 @@
         <v>5.830015055835247E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10659,7 +9911,7 @@
         <v>5.7158069685101509E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10667,7 +9919,7 @@
         <v>5.609921645373106E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10675,7 +9927,7 @@
         <v>5.5112210102379322E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10683,7 +9935,7 @@
         <v>5.4185343906283379E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10691,7 +9943,7 @@
         <v>5.3280568681657314E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10699,7 +9951,7 @@
         <v>5.2443426102399826E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -10707,7 +9959,7 @@
         <v>5.1656840369105339E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10715,7 +9967,7 @@
         <v>5.0910608842968941E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -10723,7 +9975,7 @@
         <v>5.0185360014438629E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -10731,7 +9983,7 @@
         <v>4.9433950334787369E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -10739,7 +9991,7 @@
         <v>4.8618083819746971E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -10747,7 +9999,7 @@
         <v>4.7757048159837723E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -10755,7 +10007,7 @@
         <v>4.6909493394196033E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -10763,7 +10015,7 @@
         <v>4.6085459180176258E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -10771,7 +10023,7 @@
         <v>4.5256610028445721E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -10779,7 +10031,7 @@
         <v>4.438876174390316E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -10787,7 +10039,7 @@
         <v>4.3593551963567734E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -10795,7 +10047,7 @@
         <v>4.2804814875125885E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -10803,7 +10055,7 @@
         <v>4.2063631117343903E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -10811,7 +10063,7 @@
         <v>4.1376417502760887E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -10819,7 +10071,7 @@
         <v>4.0732286870479584E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -10827,7 +10079,7 @@
         <v>4.0072961710393429E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -10835,7 +10087,7 @@
         <v>3.9455890655517578E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -10843,7 +10095,7 @@
         <v>3.8873779121786356E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -10851,7 +10103,7 @@
         <v>3.8322170730680227E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -10859,7 +10111,7 @@
         <v>3.7807300686836243E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -10867,7 +10119,7 @@
         <v>3.7309930194169283E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -10875,7 +10127,7 @@
         <v>3.6833980120718479E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -10883,7 +10135,7 @@
         <v>3.6375063937157393E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -10891,7 +10143,7 @@
         <v>3.5921742673963308E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -10899,7 +10151,7 @@
         <v>3.5466395784169436E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -10907,7 +10159,7 @@
         <v>3.5019449423998594E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -10915,7 +10167,7 @@
         <v>3.4593627788126469E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -10923,7 +10175,7 @@
         <v>3.4167759586125612E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -10931,7 +10183,7 @@
         <v>3.3769186120480299E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -10939,7 +10191,7 @@
         <v>3.3393378835171461E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -10947,7 +10199,7 @@
         <v>3.3028742764145136E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -10955,7 +10207,7 @@
         <v>3.2676549162715673E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -10963,7 +10215,7 @@
         <v>3.2323296181857586E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -10971,7 +10223,7 @@
         <v>3.1962008215487003E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -10979,7 +10231,7 @@
         <v>3.1609989237040281E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -10987,7 +10239,7 @@
         <v>3.1248175073415041E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10995,7 +10247,7 @@
         <v>3.0881301499903202E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -11003,7 +10255,7 @@
         <v>3.0476637184619904E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -11011,7 +10263,7 @@
         <v>3.0097705312073231E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -11019,7 +10271,7 @@
         <v>2.9705995693802834E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -11027,7 +10279,7 @@
         <v>2.9348330572247505E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -11035,7 +10287,7 @@
         <v>2.9010814614593983E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -11043,7 +10295,7 @@
         <v>2.8696984518319368E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -11051,7 +10303,7 @@
         <v>2.839772030711174E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -11059,7 +10311,7 @@
         <v>2.8115781024098396E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -11067,7 +10319,7 @@
         <v>2.7845697477459908E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -11075,7 +10327,7 @@
         <v>2.7577467262744904E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -11083,7 +10335,7 @@
         <v>2.731742337346077E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -11091,7 +10343,7 @@
         <v>2.7051095385104418E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -11099,7 +10351,7 @@
         <v>2.6787840761244297E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -11107,7 +10359,7 @@
         <v>2.6514842174947262E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -11115,7 +10367,7 @@
         <v>2.6231703814119101E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -11123,7 +10375,7 @@
         <v>2.5949981063604355E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -11131,7 +10383,7 @@
         <v>2.5682887062430382E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -11139,7 +10391,7 @@
         <v>2.5427218060940504E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -11147,7 +10399,7 @@
         <v>2.517997520044446E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -11155,7 +10407,7 @@
         <v>2.4933426175266504E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -11163,7 +10415,7 @@
         <v>2.4670951534062624E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -11171,7 +10423,7 @@
         <v>2.4407524615526199E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -11179,7 +10431,7 @@
         <v>2.4149154778569937E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -11187,7 +10439,7 @@
         <v>2.3880833759903908E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -11195,7 +10447,7 @@
         <v>2.3597332183271646E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -11203,9 +10455,98 @@
         <v>2.3337870370596647E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBFAF-AA15-4C44-9745-2765DEDB713C}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3.31</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.36</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.26</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.27</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6">
+        <f>AVERAGE(B2:B3)</f>
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:E4" si="0">AVERAGE(C2:C3)</f>
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4850000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>